--- a/Final Project/State Transistion Table.xlsx
+++ b/Final Project/State Transistion Table.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adairdg\Documents\Classes\ECE-425-Mobile-Robotics\Final Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lamantmh\Desktop\Homeworks\ECE-425-Mobile-Robotics\Final Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C13C9740-0337-46CF-8976-599BCCAB96B3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{725C0BA5-61CD-4A7F-8471-3FBFE1BD447A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5640" xr2:uid="{C4129C2F-0273-4E99-8266-670D512A1E02}"/>
   </bookViews>
@@ -492,323 +492,324 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0204A667-FCAA-4EAE-8347-FB14E70AFEB3}">
-  <dimension ref="A1:D23"/>
+  <dimension ref="B1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
+    <row r="3" spans="2:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
+      <c r="E3" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
+    <row r="5" spans="2:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2" t="s">
+      <c r="C5" s="2"/>
+      <c r="D5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
+      <c r="E5" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
+    <row r="7" spans="2:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
+    <row r="8" spans="2:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
+      <c r="E8" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="E9" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="2" t="s">
+    <row r="10" spans="2:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2" t="s">
+      <c r="C10" s="2"/>
+      <c r="D10" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="2" t="s">
+      <c r="E10" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="C11" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="D11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="E11" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="2" t="s">
+    <row r="12" spans="2:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="C12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="D12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="E12" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" s="2" t="s">
+    <row r="13" spans="2:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="D13" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="E13" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2" t="s">
+    <row r="14" spans="2:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14" s="2" t="s">
+      <c r="E14" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="D15" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="E15" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15" s="2" t="s">
+    <row r="16" spans="2:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="D16" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="E16" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="2" t="s">
+    <row r="17" spans="2:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="C17" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="D17" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="E17" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="2" t="s">
+    <row r="18" spans="2:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="C18" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="D18" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="E18" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="2" t="s">
+    <row r="19" spans="2:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="C19" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="D19" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="E19" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="2" t="s">
+    <row r="20" spans="2:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="C20" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="D20" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="E20" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="2" t="s">
+    <row r="21" spans="2:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="C21" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="D21" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D20" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="2" t="s">
+      <c r="E21" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="C22" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="D22" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="E22" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="2" t="s">
+    <row r="23" spans="2:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="C23" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="D23" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="E23" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="2:5" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
